--- a/Ecobliss_Results.xlsx
+++ b/Ecobliss_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Documentation/ecobliss-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DF2EA-7D7D-AF4C-B047-A7579B7AEC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE32DA-FABC-764D-9DD7-85DF9C53CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -1650,12 +1650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1665,6 +1659,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2002,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
-  <dimension ref="A2:X19"/>
+  <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="83" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2020,10 @@
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="22.1640625" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -2033,19 +2036,19 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="128" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="I3" s="124" t="s">
+      <c r="G3" s="128"/>
+      <c r="I3" s="128" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2139,67 +2142,67 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>12.242089200000001</v>
+      <c r="B6">
+        <v>12.2420891867305</v>
       </c>
       <c r="C6" s="1">
         <v>4.27508219</v>
       </c>
       <c r="D6">
         <f>B6-C6</f>
-        <v>7.9670070100000006</v>
+        <v>7.9670069967304995</v>
       </c>
       <c r="F6" s="4">
         <f>D6*$B$2*44/12</f>
-        <v>531664.93446733337</v>
+        <v>531664.93358181533</v>
       </c>
       <c r="G6">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>39079.761084041042</v>
       </c>
       <c r="H6" s="123"/>
-      <c r="Q6" s="126" t="s">
+      <c r="Q6" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="R6" s="127" t="s">
+      <c r="R6" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="S6" s="127" t="s">
+      <c r="S6" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="T6" s="127" t="s">
+      <c r="T6" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="U6" s="128" t="s">
+      <c r="U6" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="V6" s="127" t="s">
+      <c r="V6" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="W6" s="127" t="s">
+      <c r="W6" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="X6" s="129" t="s">
+      <c r="X6" s="127" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.9083504</v>
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <v>12.2420882231769</v>
       </c>
       <c r="C7" s="1">
-        <v>4.2304920199999998</v>
+        <v>4.2750812099999997</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D18" si="0">B7-C7</f>
-        <v>7.67785838</v>
+        <v>7.9670070131769002</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ref="F7:F18" si="1">D7*$B$2*44/12</f>
-        <v>512369.08255866665</v>
+        <v>531664.93467933836</v>
       </c>
       <c r="G7">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2228,24 +2231,54 @@
         <f>(N7+L7)-(I7+J7+K7+M7)</f>
         <v>-7197.487190219992</v>
       </c>
+      <c r="Q7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I7,J7,K7,M7)</f>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S7">
+        <f>SUM(L7,N7)</f>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="123">
+        <f>(W7+V7)*0.175</f>
+        <v>87461.965637465517</v>
+      </c>
+      <c r="V7">
+        <f>R7-S7</f>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W7" s="123">
+        <f>F7-G7</f>
+        <v>492585.17359529732</v>
+      </c>
+      <c r="X7" s="123">
+        <f>W7+V7-U7</f>
+        <v>412320.69514805177</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11.658609200000001</v>
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <v>12.242087277836101</v>
       </c>
       <c r="C8" s="1">
-        <v>4.2075087800000004</v>
+        <v>4.2750802500000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>7.4511004200000004</v>
+        <v>7.9670070278361003</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>497236.76802800008</v>
+        <v>531664.93565759575</v>
       </c>
       <c r="G8">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2275,53 +2308,53 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q8" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="R8">
-        <f>SUM(I8,J8,K8,M8)</f>
+        <f t="shared" ref="R8:R33" si="3">SUM(I8,J8,K8,M8)</f>
         <v>14458.506010219991</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S18" si="3">SUM(L8,N8)</f>
+        <f t="shared" ref="S8:S33" si="4">SUM(L8,N8)</f>
         <v>7261.0188199999993</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="123">
-        <f>(W8+V8)*0.175</f>
-        <v>81437.036473481319</v>
+        <f t="shared" ref="U8:U33" si="5">(W8+V8)*0.175</f>
+        <v>87461.965808660563</v>
       </c>
       <c r="V8">
-        <f>R8-S8</f>
+        <f t="shared" ref="V8:V33" si="6">R8-S8</f>
         <v>7197.487190219992</v>
       </c>
       <c r="W8" s="123">
-        <f>F8-G8</f>
-        <v>458157.00694395904</v>
+        <f t="shared" ref="W8:W33" si="7">F8-G8</f>
+        <v>492585.17457355472</v>
       </c>
       <c r="X8" s="123">
-        <f>W8+V8-U8</f>
-        <v>383917.45766069769</v>
+        <f t="shared" ref="X8:X33" si="8">W8+V8-U8</f>
+        <v>412320.69595511415</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11.770384399999999</v>
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <v>12.242086350363801</v>
       </c>
       <c r="C9" s="1">
-        <v>4.2206891500000001</v>
+        <v>4.2750793099999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>7.5496952499999992</v>
+        <v>7.9670070403638009</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>503816.32968333323</v>
+        <v>531664.93649361108</v>
       </c>
       <c r="G9">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2351,53 +2384,53 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q9" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R8:R18" si="4">SUM(I9,J9,K9,M9)</f>
+        <f t="shared" si="3"/>
         <v>14458.506010219991</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="123">
-        <f t="shared" ref="U9:U18" si="5">(W9+V9)*0.175</f>
-        <v>82588.459763164632</v>
+        <f t="shared" si="5"/>
+        <v>87461.965954963249</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V18" si="6">R9-S9</f>
+        <f t="shared" si="6"/>
         <v>7197.487190219992</v>
       </c>
       <c r="W9" s="123">
-        <f t="shared" ref="W9:W18" si="7">F9-G9</f>
-        <v>464736.56859929219</v>
+        <f t="shared" si="7"/>
+        <v>492585.17540957005</v>
       </c>
       <c r="X9" s="123">
-        <f t="shared" ref="X9:X18" si="8">W9+V9-U9</f>
-        <v>389345.59602634754</v>
+        <f t="shared" si="8"/>
+        <v>412320.69664482679</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B10" s="1">
-        <v>11.8517172</v>
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <v>12.242085440422301</v>
       </c>
       <c r="C10" s="1">
-        <v>4.2302142800000002</v>
+        <v>4.27507839</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7.6215029199999993</v>
+        <v>7.9670070504223007</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>508608.29486133327</v>
+        <v>531664.9371648482</v>
       </c>
       <c r="G10">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2427,22 +2460,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q10" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="R10">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="123">
         <f t="shared" si="5"/>
-        <v>83427.053669314628</v>
+        <v>87461.966072429743</v>
       </c>
       <c r="V10">
         <f t="shared" si="6"/>
@@ -2450,30 +2483,30 @@
       </c>
       <c r="W10" s="123">
         <f t="shared" si="7"/>
-        <v>469528.53377729224</v>
+        <v>492585.17608080717</v>
       </c>
       <c r="X10" s="123">
         <f t="shared" si="8"/>
-        <v>393298.96729819756</v>
+        <v>412320.69719859742</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11.911185700000001</v>
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <v>12.2420845476803</v>
       </c>
       <c r="C11" s="1">
-        <v>4.23714309</v>
+        <v>4.2750774900000001</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.6740426100000008</v>
+        <v>7.9670070576802994</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>512114.44350733346</v>
+        <v>531664.93764919869</v>
       </c>
       <c r="G11">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2503,22 +2536,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q11" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="R11">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U11" s="123">
         <f t="shared" si="5"/>
-        <v>84040.62968236467</v>
+        <v>87461.966157191084</v>
       </c>
       <c r="V11">
         <f t="shared" si="6"/>
@@ -2526,30 +2559,30 @@
       </c>
       <c r="W11" s="123">
         <f t="shared" si="7"/>
-        <v>473034.68242329243</v>
+        <v>492585.17656515766</v>
       </c>
       <c r="X11" s="123">
         <f t="shared" si="8"/>
-        <v>396191.53993114771</v>
+        <v>412320.69759818655</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.954926</v>
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <v>12.2420836718125</v>
       </c>
       <c r="C12" s="1">
-        <v>4.2422196400000001</v>
+        <v>4.2750766000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>7.7127063600000003</v>
+        <v>7.9670070718124997</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>514694.60442400002</v>
+        <v>531664.9385922876</v>
       </c>
       <c r="G12">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2579,22 +2612,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q12" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="R12">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="123">
         <f t="shared" si="5"/>
-        <v>84492.157842781307</v>
+        <v>87461.966322231645</v>
       </c>
       <c r="V12">
         <f t="shared" si="6"/>
@@ -2602,30 +2635,30 @@
       </c>
       <c r="W12" s="123">
         <f t="shared" si="7"/>
-        <v>475614.84333995898</v>
+        <v>492585.17750824656</v>
       </c>
       <c r="X12" s="123">
         <f t="shared" si="8"/>
-        <v>398320.17268739769</v>
+        <v>412320.69837623491</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11.987338899999999</v>
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <v>12.242082812500101</v>
       </c>
       <c r="C13" s="1">
-        <v>4.2459703299999996</v>
+        <v>4.2750757300000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>7.7413685699999997</v>
+        <v>7.9670070825001007</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>516607.32923800003</v>
+        <v>531664.93930550665</v>
       </c>
       <c r="G13">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2655,22 +2688,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q13" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R13">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U13" s="123">
         <f t="shared" si="5"/>
-        <v>84826.884685231315</v>
+        <v>87461.966447044979</v>
       </c>
       <c r="V13">
         <f t="shared" si="6"/>
@@ -2678,30 +2711,30 @@
       </c>
       <c r="W13" s="123">
         <f t="shared" si="7"/>
-        <v>477527.568153959</v>
+        <v>492585.17822146561</v>
       </c>
       <c r="X13" s="123">
         <f t="shared" si="8"/>
-        <v>399898.17065894767</v>
+        <v>412320.69896464061</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12.0115847</v>
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <v>12.242081969430201</v>
       </c>
       <c r="C14" s="1">
-        <v>4.2487693200000001</v>
+        <v>4.2750748700000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>7.7628153800000002</v>
+        <v>7.9670070994302007</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>518038.54635866662</v>
+        <v>531664.94043530873</v>
       </c>
       <c r="G14">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2731,22 +2764,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q14" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R14">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U14" s="123">
         <f t="shared" si="5"/>
-        <v>85077.347681347965</v>
+        <v>87461.966644760338</v>
       </c>
       <c r="V14">
         <f t="shared" si="6"/>
@@ -2754,30 +2787,30 @@
       </c>
       <c r="W14" s="123">
         <f t="shared" si="7"/>
-        <v>478958.78527462558</v>
+        <v>492585.1793512677</v>
       </c>
       <c r="X14" s="123">
         <f t="shared" si="8"/>
-        <v>401078.92478349758</v>
+        <v>412320.69989672734</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12.029934900000001</v>
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <v>12.2420811422956</v>
       </c>
       <c r="C15" s="1">
-        <v>4.2508835899999999</v>
+        <v>4.2750740399999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7.7790513100000007</v>
+        <v>7.9670071022956002</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>519122.02408733341</v>
+        <v>531664.94062652637</v>
       </c>
       <c r="G15">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2807,22 +2840,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q15" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="R15">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" s="123">
         <f t="shared" si="5"/>
-        <v>85266.956283864653</v>
+        <v>87461.966678223427</v>
       </c>
       <c r="V15">
         <f t="shared" si="6"/>
@@ -2830,30 +2863,30 @@
       </c>
       <c r="W15" s="123">
         <f t="shared" si="7"/>
-        <v>480042.26300329238</v>
+        <v>492585.17954248533</v>
       </c>
       <c r="X15" s="123">
         <f t="shared" si="8"/>
-        <v>401972.79390964773</v>
+        <v>412320.70005448186</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B16" s="1">
-        <v>12.0440238</v>
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <v>12.2420803307953</v>
       </c>
       <c r="C16" s="1">
-        <v>4.2525041200000002</v>
+        <v>4.2750732100000004</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>7.7915196799999995</v>
+        <v>7.9670071207952997</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>519954.07997866668</v>
+        <v>531664.9418610729</v>
       </c>
       <c r="G16">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2883,22 +2916,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q16" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R16">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U16" s="123">
         <f t="shared" si="5"/>
-        <v>85412.566064847982</v>
+        <v>87461.966894269062</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
@@ -2906,30 +2939,30 @@
       </c>
       <c r="W16" s="123">
         <f t="shared" si="7"/>
-        <v>480874.31889462564</v>
+        <v>492585.18077703187</v>
       </c>
       <c r="X16" s="123">
         <f t="shared" si="8"/>
-        <v>402659.24001999764</v>
+        <v>412320.7010729828</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B17" s="1">
-        <v>12.055027600000001</v>
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <v>12.242079534633699</v>
       </c>
       <c r="C17" s="1">
-        <v>4.2537678400000001</v>
+        <v>4.2750724099999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>7.8012597600000007</v>
+        <v>7.9670071246336995</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>520604.06798400002</v>
+        <v>531664.94211722224</v>
       </c>
       <c r="G17">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2959,22 +2992,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q17" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="R17">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U17" s="123">
         <f t="shared" si="5"/>
-        <v>85526.313965781315</v>
+        <v>87461.966939095204</v>
       </c>
       <c r="V17">
         <f t="shared" si="6"/>
@@ -2982,30 +3015,30 @@
       </c>
       <c r="W17" s="123">
         <f t="shared" si="7"/>
-        <v>481524.30689995899</v>
+        <v>492585.1810331812</v>
       </c>
       <c r="X17" s="123">
         <f t="shared" si="8"/>
-        <v>403195.48012439767</v>
+        <v>412320.70128430601</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12.063793199999999</v>
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <v>12.242078753521</v>
       </c>
       <c r="C18" s="1">
-        <v>4.2547730499999998</v>
+        <v>4.2750716200000003</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>7.8090201499999994</v>
+        <v>7.9670071335209993</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>521121.9446766667</v>
+        <v>531664.94271030126</v>
       </c>
       <c r="G18">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -3035,22 +3068,22 @@
         <v>-7197.487190219992</v>
       </c>
       <c r="Q18" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="R18">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="4"/>
-        <v>14458.506010219991</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
         <v>7261.0188199999993</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18" s="123">
         <f t="shared" si="5"/>
-        <v>85616.94238699798</v>
+        <v>87461.967042884033</v>
       </c>
       <c r="V18">
         <f t="shared" si="6"/>
@@ -3058,15 +3091,2216 @@
       </c>
       <c r="W18" s="123">
         <f t="shared" si="7"/>
-        <v>482042.18359262566</v>
+        <v>492585.18162626022</v>
       </c>
       <c r="X18" s="123">
         <f t="shared" si="8"/>
-        <v>403622.72839584766</v>
+        <v>412320.70177359617</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <v>12.2420779871725</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.2750708399999997</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D47" si="9">B19-C19</f>
+        <v>7.9670071471725006</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19:F47" si="10">D19*$B$2*44/12</f>
+        <v>531664.94362131145</v>
+      </c>
+      <c r="G19">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19">
+        <v>217.375</v>
+      </c>
+      <c r="J19">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K19">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L19">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M19">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N19">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O47" si="11">(N19+L19)-(I19+J19+K19+M19)</f>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2037</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967202310814</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W19" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18253727042</v>
+      </c>
+      <c r="X19" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.7025251796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <v>12.242077235309299</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.2750700799999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="9"/>
+        <v>7.9670071553092994</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.94416430721</v>
+      </c>
+      <c r="G20">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H20" s="123"/>
+      <c r="I20">
+        <v>217.375</v>
+      </c>
+      <c r="J20">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K20">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L20">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M20">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N20">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2038</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T20">
+        <v>13</v>
+      </c>
+      <c r="U20" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967297335068</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W20" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18308026617</v>
+      </c>
+      <c r="X20" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70297315111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <v>12.2420764976576</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.27506933</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>7.9670071676575995</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9449883505</v>
+      </c>
+      <c r="G21">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H21" s="123"/>
+      <c r="I21">
+        <v>217.375</v>
+      </c>
+      <c r="J21">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K21">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L21">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M21">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N21">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2039</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967441542642</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W21" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18390430947</v>
+      </c>
+      <c r="X21" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70365298679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <v>12.242075773948701</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.2750686</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>7.9670071739487005</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.94540817663</v>
+      </c>
+      <c r="G22">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H22" s="123"/>
+      <c r="I22">
+        <v>217.375</v>
+      </c>
+      <c r="J22">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K22">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L22">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M22">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N22">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2040</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.96751501222</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W22" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.1843241356</v>
+      </c>
+      <c r="X22" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70399934333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2041</v>
+      </c>
+      <c r="B23">
+        <v>12.2420750639192</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.2750678799999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>7.9670071839192005</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9460735413</v>
+      </c>
+      <c r="G23">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H23" s="123"/>
+      <c r="I23">
+        <v>217.375</v>
+      </c>
+      <c r="J23">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K23">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L23">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M23">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N23">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2041</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967631451043</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W23" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18498950027</v>
+      </c>
+      <c r="X23" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70454826922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2042</v>
+      </c>
+      <c r="B24">
+        <v>12.2420743673104</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.2750671699999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>7.9670071973103997</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9469671807</v>
+      </c>
+      <c r="G24">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H24" s="123"/>
+      <c r="I24">
+        <v>217.375</v>
+      </c>
+      <c r="J24">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K24">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L24">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M24">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N24">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2042</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T24">
+        <v>17</v>
+      </c>
+      <c r="U24" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.96778783793</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W24" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18588313967</v>
+      </c>
+      <c r="X24" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70528552169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2043</v>
+      </c>
+      <c r="B25">
+        <v>12.2420736838686</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.2750664799999996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>7.9670072038686008</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9474048313</v>
+      </c>
+      <c r="G25">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H25" s="123"/>
+      <c r="I25">
+        <v>217.375</v>
+      </c>
+      <c r="J25">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K25">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L25">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M25">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N25">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2043</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967864426784</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W25" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18632079026</v>
+      </c>
+      <c r="X25" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70564658346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2044</v>
+      </c>
+      <c r="B26">
+        <v>12.242073013345101</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.2750658000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="9"/>
+        <v>7.9670072133451004</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.94803722971</v>
+      </c>
+      <c r="G26">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H26" s="123"/>
+      <c r="I26">
+        <v>217.375</v>
+      </c>
+      <c r="J26">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K26">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L26">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M26">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N26">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2044</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="U26" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.967975096515</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W26" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18695318868</v>
+      </c>
+      <c r="X26" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70616831211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2045</v>
+      </c>
+      <c r="B27">
+        <v>12.2420723554955</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.2750651299999998</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>7.9670072254955002</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.94884806639</v>
+      </c>
+      <c r="G27">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H27" s="123"/>
+      <c r="I27">
+        <v>217.375</v>
+      </c>
+      <c r="J27">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K27">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L27">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M27">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N27">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2045</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968116992924</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W27" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18776402535</v>
+      </c>
+      <c r="X27" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70683725242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2046</v>
+      </c>
+      <c r="B28">
+        <v>12.2420717100805</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.2750644800000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>7.9670072300805002</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9491540388</v>
+      </c>
+      <c r="G28">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H28" s="123"/>
+      <c r="I28">
+        <v>217.375</v>
+      </c>
+      <c r="J28">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K28">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L28">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M28">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N28">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2046</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T28">
+        <v>21</v>
+      </c>
+      <c r="U28" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968170538094</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W28" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18806999776</v>
+      </c>
+      <c r="X28" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70708967966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2047</v>
+      </c>
+      <c r="B29">
+        <v>12.2420710768648</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.2750638399999996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>7.9670072368648004</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.94960677763</v>
+      </c>
+      <c r="G29">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H29" s="123"/>
+      <c r="I29">
+        <v>217.375</v>
+      </c>
+      <c r="J29">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K29">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L29">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M29">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N29">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2047</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T29">
+        <v>22</v>
+      </c>
+      <c r="U29" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968249767393</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W29" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.1885227366</v>
+      </c>
+      <c r="X29" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.7074631892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2048</v>
+      </c>
+      <c r="B30">
+        <v>12.242070455618</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.2750632099999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>7.9670072456180003</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95019090781</v>
+      </c>
+      <c r="G30">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H30" s="123"/>
+      <c r="I30">
+        <v>217.375</v>
+      </c>
+      <c r="J30">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K30">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L30">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M30">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N30">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2048</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T30">
+        <v>23</v>
+      </c>
+      <c r="U30" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968351990174</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W30" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18910686678</v>
+      </c>
+      <c r="X30" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.7079450966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2049</v>
+      </c>
+      <c r="B31">
+        <v>12.2420698461138</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.2750625900000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>7.9670072561138001</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95089132758</v>
+      </c>
+      <c r="G31">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H31" s="123"/>
+      <c r="I31">
+        <v>217.375</v>
+      </c>
+      <c r="J31">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K31">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L31">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M31">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N31">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2049</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968474563633</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W31" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.18980728654</v>
+      </c>
+      <c r="X31" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70852294291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2050</v>
+      </c>
+      <c r="B32">
+        <v>12.2420692481302</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.2750619800000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>7.9670072681301995</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95169322204</v>
+      </c>
+      <c r="G32">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H32" s="123"/>
+      <c r="I32">
+        <v>217.375</v>
+      </c>
+      <c r="J32">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K32">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L32">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M32">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N32">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2050</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T32">
+        <v>25</v>
+      </c>
+      <c r="U32" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968614895173</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W32" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.19060918101</v>
+      </c>
+      <c r="X32" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.7091845058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2051</v>
+      </c>
+      <c r="B33">
+        <v>12.242068661449601</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4.2750613900000003</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>7.9670072714496003</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95191473665</v>
+      </c>
+      <c r="G33">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33">
+        <v>217.375</v>
+      </c>
+      <c r="J33">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K33">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L33">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M33">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N33">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2051</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T33">
+        <v>26</v>
+      </c>
+      <c r="U33" s="123">
+        <f t="shared" si="5"/>
+        <v>87461.968653660224</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W33" s="123">
+        <f t="shared" si="7"/>
+        <v>492585.19083069562</v>
+      </c>
+      <c r="X33" s="123">
+        <f t="shared" si="8"/>
+        <v>412320.70936725539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2052</v>
+      </c>
+      <c r="B34">
+        <v>12.242068085858101</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.2750608100000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>7.9670072758581005</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95220893063</v>
+      </c>
+      <c r="G34">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H34" s="123"/>
+      <c r="I34">
+        <v>217.375</v>
+      </c>
+      <c r="J34">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K34">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L34">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M34">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N34">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2052</v>
+      </c>
+      <c r="R34">
+        <f>SUM(I34,J34,K34,M34)</f>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S34">
+        <f>SUM(L34,N34)</f>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T34">
+        <v>27</v>
+      </c>
+      <c r="U34" s="123">
+        <f>(W34+V34)*0.175</f>
+        <v>87461.968705144172</v>
+      </c>
+      <c r="V34">
+        <f>R34-S34</f>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W34" s="123">
+        <f>F34-G34</f>
+        <v>492585.19112488959</v>
+      </c>
+      <c r="X34" s="123">
+        <f>W34+V34-U34</f>
+        <v>412320.70960996539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35">
+        <v>12.242067521146399</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4.2750602300000002</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>7.9670072911463992</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95322916971</v>
+      </c>
+      <c r="G35">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H35" s="123"/>
+      <c r="I35">
+        <v>217.375</v>
+      </c>
+      <c r="J35">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K35">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L35">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M35">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N35">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2053</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:R47" si="12">SUM(I35,J35,K35,M35)</f>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:S47" si="13">SUM(L35,N35)</f>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T35">
+        <v>28</v>
+      </c>
+      <c r="U35" s="123">
+        <f t="shared" ref="U35:U47" si="14">(W35+V35)*0.175</f>
+        <v>87461.968883686015</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ref="V35:V47" si="15">R35-S35</f>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W35" s="123">
+        <f t="shared" ref="W35:W47" si="16">F35-G35</f>
+        <v>492585.19214512868</v>
+      </c>
+      <c r="X35" s="123">
+        <f t="shared" ref="X35:X47" si="17">W35+V35-U35</f>
+        <v>412320.71045166266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36">
+        <v>12.242066967108601</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.2750596700000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>7.9670072971086006</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95362704725</v>
+      </c>
+      <c r="G36">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H36" s="123"/>
+      <c r="I36">
+        <v>217.375</v>
+      </c>
+      <c r="J36">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K36">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L36">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M36">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N36">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2054</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T36">
+        <v>29</v>
+      </c>
+      <c r="U36" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.968953314572</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W36" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19254300621</v>
+      </c>
+      <c r="X36" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71077991161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2055</v>
+      </c>
+      <c r="B37">
+        <v>12.242066423542999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.2750591199999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>7.9670073035429994</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9540564362</v>
+      </c>
+      <c r="G37">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H37" s="123"/>
+      <c r="I37">
+        <v>217.375</v>
+      </c>
+      <c r="J37">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K37">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L37">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M37">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N37">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2055</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T37">
+        <v>30</v>
+      </c>
+      <c r="U37" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.96902845765</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W37" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19297239516</v>
+      </c>
+      <c r="X37" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71113415749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2056</v>
+      </c>
+      <c r="B38">
+        <v>12.2420658902518</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.2750585799999996</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="9"/>
+        <v>7.9670073102518</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95450413681</v>
+      </c>
+      <c r="G38">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H38" s="123"/>
+      <c r="I38">
+        <v>217.375</v>
+      </c>
+      <c r="J38">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K38">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L38">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M38">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N38">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2056</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T38">
+        <v>31</v>
+      </c>
+      <c r="U38" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969106805249</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W38" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19342009578</v>
+      </c>
+      <c r="X38" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71150351048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2057</v>
+      </c>
+      <c r="B39">
+        <v>12.242065367040601</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.2750580500000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>7.9670073170406006</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95495717612</v>
+      </c>
+      <c r="G39">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H39" s="123"/>
+      <c r="I39">
+        <v>217.375</v>
+      </c>
+      <c r="J39">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K39">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L39">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M39">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N39">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2057</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T39">
+        <v>32</v>
+      </c>
+      <c r="U39" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969186087124</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W39" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19387313508</v>
+      </c>
+      <c r="X39" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71187726792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2058</v>
+      </c>
+      <c r="B40">
+        <v>12.2420648537191</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.2750575299999998</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="9"/>
+        <v>7.9670073237191001</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95540285471</v>
+      </c>
+      <c r="G40">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H40" s="123"/>
+      <c r="I40">
+        <v>217.375</v>
+      </c>
+      <c r="J40">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K40">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L40">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M40">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N40">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2058</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T40">
+        <v>33</v>
+      </c>
+      <c r="U40" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969264080879</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W40" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19431881368</v>
+      </c>
+      <c r="X40" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.7122449528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2059</v>
+      </c>
+      <c r="B41">
+        <v>12.242064350100099</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.2750570200000002</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="9"/>
+        <v>7.967007330100099</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95582867996</v>
+      </c>
+      <c r="G41">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H41" s="123"/>
+      <c r="I41">
+        <v>217.375</v>
+      </c>
+      <c r="J41">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K41">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L41">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M41">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N41">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2059</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T41">
+        <v>34</v>
+      </c>
+      <c r="U41" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969338600305</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W41" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19474463892</v>
+      </c>
+      <c r="X41" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71259625861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2060</v>
+      </c>
+      <c r="B42">
+        <v>12.242063856000399</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.2750565199999997</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="9"/>
+        <v>7.9670073360003997</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95622242661</v>
+      </c>
+      <c r="G42">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H42" s="123"/>
+      <c r="I42">
+        <v>217.375</v>
+      </c>
+      <c r="J42">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K42">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L42">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M42">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N42">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2060</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T42">
+        <v>35</v>
+      </c>
+      <c r="U42" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969407505967</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W42" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19513838558</v>
+      </c>
+      <c r="X42" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71292109962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2061</v>
+      </c>
+      <c r="B43">
+        <v>12.24206337124</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.27505603</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="9"/>
+        <v>7.9670073412400004</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95657208271</v>
+      </c>
+      <c r="G43">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H43" s="123"/>
+      <c r="I43">
+        <v>217.375</v>
+      </c>
+      <c r="J43">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K43">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L43">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M43">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N43">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2061</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T43">
+        <v>36</v>
+      </c>
+      <c r="U43" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969468695781</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W43" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19548804167</v>
+      </c>
+      <c r="X43" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71320956585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2062</v>
+      </c>
+      <c r="B44">
+        <v>12.2420628956424</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.2750555500000003</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="9"/>
+        <v>7.9670073456423998</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95686586946</v>
+      </c>
+      <c r="G44">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H44" s="123"/>
+      <c r="I44">
+        <v>217.375</v>
+      </c>
+      <c r="J44">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K44">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L44">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M44">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N44">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>2062</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T44">
+        <v>37</v>
+      </c>
+      <c r="U44" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969520108469</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W44" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19578182843</v>
+      </c>
+      <c r="X44" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71345193993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2063</v>
+      </c>
+      <c r="B45">
+        <v>12.2420624290344</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.2750550699999996</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="9"/>
+        <v>7.9670073590344002</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.9577595623</v>
+      </c>
+      <c r="G45">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H45" s="123"/>
+      <c r="I45">
+        <v>217.375</v>
+      </c>
+      <c r="J45">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K45">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L45">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M45">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N45">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2063</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T45">
+        <v>38</v>
+      </c>
+      <c r="U45" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969676504712</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W45" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19667552126</v>
+      </c>
+      <c r="X45" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71418923652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2064</v>
+      </c>
+      <c r="B46">
+        <v>12.242061971246001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.2750546099999998</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>7.9670073612460008</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95790714968</v>
+      </c>
+      <c r="G46">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H46" s="123"/>
+      <c r="I46">
+        <v>217.375</v>
+      </c>
+      <c r="J46">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K46">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L46">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M46">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N46">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2064</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T46">
+        <v>39</v>
+      </c>
+      <c r="U46" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969702332499</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W46" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19682310865</v>
+      </c>
+      <c r="X46" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71431099612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2065</v>
+      </c>
+      <c r="B47">
+        <v>12.2420615221106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.2750541599999998</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="9"/>
+        <v>7.9670073621105999</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="10"/>
+        <v>531664.95796484745</v>
+      </c>
+      <c r="G47">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>39079.761084041042</v>
+      </c>
+      <c r="H47" s="123"/>
+      <c r="I47">
+        <v>217.375</v>
+      </c>
+      <c r="J47">
+        <v>379.66660000000002</v>
+      </c>
+      <c r="K47">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L47">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M47">
+        <v>12306.966700000001</v>
+      </c>
+      <c r="N47">
+        <v>6153.4832999999999</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="11"/>
+        <v>-7197.487190219992</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>2065</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="12"/>
+        <v>14458.506010219991</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="13"/>
+        <v>7261.0188199999993</v>
+      </c>
+      <c r="T47">
+        <v>40</v>
+      </c>
+      <c r="U47" s="123">
+        <f t="shared" si="14"/>
+        <v>87461.969712429607</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>7197.487190219992</v>
+      </c>
+      <c r="W47" s="123">
+        <f t="shared" si="16"/>
+        <v>492585.19688080641</v>
+      </c>
+      <c r="X47" s="123">
+        <f t="shared" si="17"/>
+        <v>412320.71435859677</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12844,12 +15078,12 @@
       <c r="R85"/>
     </row>
     <row r="86" spans="1:44" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
       <c r="F86" s="121"/>
       <c r="G86" s="121"/>
       <c r="H86" s="121"/>

--- a/Ecobliss_Results.xlsx
+++ b/Ecobliss_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Documentation/ecobliss-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE32DA-FABC-764D-9DD7-85DF9C53CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38083A5-4097-3C47-A8E1-981044EB1424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -2002,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
-  <dimension ref="A2:X47"/>
+  <dimension ref="A2:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="83" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2023,7 +2023,8 @@
     <col min="17" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -5300,6 +5301,12 @@
       <c r="X47" s="123">
         <f t="shared" si="17"/>
         <v>412320.71435859677</v>
+      </c>
+    </row>
+    <row r="49" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X49" s="123">
+        <f>412320*40</f>
+        <v>16492800</v>
       </c>
     </row>
   </sheetData>
